--- a/biology/Botanique/Lamioideae/Lamioideae.xlsx
+++ b/biology/Botanique/Lamioideae/Lamioideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lamioideae sont une sous-famille de plantes dicotylédones de la famille des Lamiaceae (Labiateae). Avec plus de 1250 espèces et 63 genres, c'est la seconde en importance des sept sous-familles qui composent la famille des Lamiaceae.
-La sous-famille des Lamioideae est principalement composée de plantes herbacées, d'arbrisseaux et de sous-arbrisseaux. Elle a une répartition quasi-cosmopolite, avec une distribution plus fréquente en Eurasie et en Afrique. Elle est fortement représentée (tant par le nombre d'espèces que par leur abondance locale) dans les régions tempérées chaudes à subtropicales, mais se rencontre également dans certaines régions tropicales et tempérées froides[3].
-La classification au niveau infra-sous-familial est caractérisée par un grand nombre de genres monotypiques et par le fait que la moitié environ du nombre total d'espèces appartiennent à seulement quatre genres apparemment paraphylétiques (Leucas, Phlomis, Sideritis et Stachys), ce qui reflète clairement les défis taxonomiques que cette sous-famille représente[3].
+La sous-famille des Lamioideae est principalement composée de plantes herbacées, d'arbrisseaux et de sous-arbrisseaux. Elle a une répartition quasi-cosmopolite, avec une distribution plus fréquente en Eurasie et en Afrique. Elle est fortement représentée (tant par le nombre d'espèces que par leur abondance locale) dans les régions tempérées chaudes à subtropicales, mais se rencontre également dans certaines régions tropicales et tempérées froides.
+La classification au niveau infra-sous-familial est caractérisée par un grand nombre de genres monotypiques et par le fait que la moitié environ du nombre total d'espèces appartiennent à seulement quatre genres apparemment paraphylétiques (Leucas, Phlomis, Sideritis et Stachys), ce qui reflète clairement les défis taxonomiques que cette sous-famille représente.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (15 août 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (15 août 2019) :
 Achyrospermum Blume
 Acrotome Benth. ex Endl.
 Ajugoides Makino
